--- a/results/pidis0/sim/pvdis-had-p-opt-max.xlsx
+++ b/results/pidis0/sim/pvdis-had-p-opt-max.xlsx
@@ -2994,7 +2994,7 @@
         <v>429</v>
       </c>
       <c r="M2">
-        <v>6.725030658561337e-06</v>
+        <v>3.808770273713056e-06</v>
       </c>
       <c r="N2">
         <v>1.91060222037918e-09</v>
@@ -4280,7 +4280,7 @@
         <v>429</v>
       </c>
       <c r="M3">
-        <v>1.671487004604282e-06</v>
+        <v>3.002956342800443e-06</v>
       </c>
       <c r="N3">
         <v>9.908390558393144e-10</v>
@@ -5566,7 +5566,7 @@
         <v>429</v>
       </c>
       <c r="M4">
-        <v>2.570476537277754e-06</v>
+        <v>1.229059706456451e-06</v>
       </c>
       <c r="N4">
         <v>5.996565306182538e-09</v>
@@ -6852,7 +6852,7 @@
         <v>429</v>
       </c>
       <c r="M5">
-        <v>9.378131260478456e-07</v>
+        <v>9.802892107232505e-07</v>
       </c>
       <c r="N5">
         <v>5.974642710912182e-10</v>
@@ -8138,7 +8138,7 @@
         <v>429</v>
       </c>
       <c r="M6">
-        <v>9.689552736589578e-07</v>
+        <v>1.034588899179837e-06</v>
       </c>
       <c r="N6">
         <v>2.913467369223293e-09</v>
@@ -9424,7 +9424,7 @@
         <v>429</v>
       </c>
       <c r="M7">
-        <v>5.357910224280882e-07</v>
+        <v>1.46094976319635e-07</v>
       </c>
       <c r="N7">
         <v>5.424031782049884e-10</v>
@@ -10710,7 +10710,7 @@
         <v>429</v>
       </c>
       <c r="M8">
-        <v>5.456463304965803e-07</v>
+        <v>3.409197678006186e-07</v>
       </c>
       <c r="N8">
         <v>1.56614574131317e-09</v>
@@ -11996,7 +11996,7 @@
         <v>429</v>
       </c>
       <c r="M9">
-        <v>9.261209598845369e-07</v>
+        <v>1.167278401878678e-06</v>
       </c>
       <c r="N9">
         <v>9.410887891776249e-09</v>
@@ -13282,7 +13282,7 @@
         <v>429</v>
       </c>
       <c r="M10">
-        <v>3.091528804775794e-07</v>
+        <v>5.139758038827112e-08</v>
       </c>
       <c r="N10">
         <v>6.107821117417683e-10</v>
@@ -14568,7 +14568,7 @@
         <v>429</v>
       </c>
       <c r="M11">
-        <v>3.142701703590261e-07</v>
+        <v>2.991590495390308e-08</v>
       </c>
       <c r="N11">
         <v>1.295747227599779e-09</v>
@@ -15854,7 +15854,7 @@
         <v>429</v>
       </c>
       <c r="M12">
-        <v>4.685048020596675e-07</v>
+        <v>2.213496357065125e-07</v>
       </c>
       <c r="N12">
         <v>3.652840500549019e-09</v>
@@ -17140,7 +17140,7 @@
         <v>429</v>
       </c>
       <c r="M13">
-        <v>9.607099692581448e-07</v>
+        <v>1.546879349610848e-06</v>
       </c>
       <c r="N13">
         <v>2.578796145984845e-08</v>
@@ -18426,7 +18426,7 @@
         <v>429</v>
       </c>
       <c r="M14">
-        <v>1.793427860826712e-07</v>
+        <v>2.434975398699652e-08</v>
       </c>
       <c r="N14">
         <v>7.371916394101342e-10</v>
@@ -19712,7 +19712,7 @@
         <v>429</v>
       </c>
       <c r="M15">
-        <v>1.831103709636542e-07</v>
+        <v>1.16491934135984e-08</v>
       </c>
       <c r="N15">
         <v>1.337316824634097e-09</v>
@@ -20998,7 +20998,7 @@
         <v>429</v>
       </c>
       <c r="M16">
-        <v>2.703477391315575e-07</v>
+        <v>1.400002715702751e-08</v>
       </c>
       <c r="N16">
         <v>1.927313514942223e-09</v>
@@ -22284,7 +22284,7 @@
         <v>429</v>
       </c>
       <c r="M17">
-        <v>4.315254278227106e-07</v>
+        <v>-1.094093518023498e-08</v>
       </c>
       <c r="N17">
         <v>-1.355847179823096e-09</v>
@@ -23570,7 +23570,7 @@
         <v>429</v>
       </c>
       <c r="M18">
-        <v>1.042842490044297e-07</v>
+        <v>1.266647278946177e-08</v>
       </c>
       <c r="N18">
         <v>8.832676901061034e-10</v>
@@ -24856,7 +24856,7 @@
         <v>429</v>
       </c>
       <c r="M19">
-        <v>1.072702529529672e-07</v>
+        <v>7.542408134978915e-09</v>
       </c>
       <c r="N19">
         <v>1.343649335727143e-09</v>
@@ -26142,7 +26142,7 @@
         <v>429</v>
       </c>
       <c r="M20">
-        <v>1.585204504492627e-07</v>
+        <v>9.533357167189115e-10</v>
       </c>
       <c r="N20">
         <v>5.073907714487946e-10</v>
@@ -27428,7 +27428,7 @@
         <v>429</v>
       </c>
       <c r="M21">
-        <v>2.441103002223116e-07</v>
+        <v>-7.537736474390796e-09</v>
       </c>
       <c r="N21">
         <v>-1.242519529840893e-08</v>
@@ -28714,7 +28714,7 @@
         <v>429</v>
       </c>
       <c r="M22">
-        <v>4.456031260588236e-07</v>
+        <v>-6.562520986078413e-08</v>
       </c>
       <c r="N22">
         <v>-9.865467822557921e-08</v>
@@ -30000,7 +30000,7 @@
         <v>429</v>
       </c>
       <c r="M23">
-        <v>6.036986920654187e-08</v>
+        <v>5.721888279809489e-09</v>
       </c>
       <c r="N23">
         <v>9.106003271134648e-10</v>
@@ -31286,7 +31286,7 @@
         <v>429</v>
       </c>
       <c r="M24">
-        <v>6.271229101706345e-08</v>
+        <v>1.832088668523105e-09</v>
       </c>
       <c r="N24">
         <v>6.544747676357042e-10</v>
@@ -32572,7 +32572,7 @@
         <v>429</v>
       </c>
       <c r="M25">
-        <v>9.345788393816636e-08</v>
+        <v>-4.368230409414725e-09</v>
       </c>
       <c r="N25">
         <v>-3.345190468834738e-09</v>
@@ -33858,7 +33858,7 @@
         <v>429</v>
       </c>
       <c r="M26">
-        <v>1.434928591720726e-07</v>
+        <v>-1.796054143487172e-08</v>
       </c>
       <c r="N26">
         <v>-2.889680298509068e-08</v>
@@ -35144,7 +35144,7 @@
         <v>429</v>
       </c>
       <c r="M27">
-        <v>2.304115925165343e-07</v>
+        <v>-5.186044169814106e-08</v>
       </c>
       <c r="N27">
         <v>-1.814246440110985e-07</v>
@@ -36430,7 +36430,7 @@
         <v>429</v>
       </c>
       <c r="M28">
-        <v>3.439099447641817e-08</v>
+        <v>6.239369029099073e-10</v>
       </c>
       <c r="N28">
         <v>2.395694378090584e-10</v>
@@ -37716,7 +37716,7 @@
         <v>429</v>
       </c>
       <c r="M29">
-        <v>3.626253498081598e-08</v>
+        <v>-3.472430723727433e-09</v>
       </c>
       <c r="N29">
         <v>-2.802874657807296e-09</v>
@@ -39002,7 +39002,7 @@
         <v>429</v>
       </c>
       <c r="M30">
-        <v>5.486996991045726e-08</v>
+        <v>-1.008830622261765e-08</v>
       </c>
       <c r="N30">
         <v>-1.606064309941826e-08</v>
@@ -40288,7 +40288,7 @@
         <v>429</v>
       </c>
       <c r="M31">
-        <v>8.485057357476191e-08</v>
+        <v>-2.319565453729901e-08</v>
       </c>
       <c r="N31">
         <v>-7.100436630443846e-08</v>
@@ -41574,7 +41574,7 @@
         <v>429</v>
       </c>
       <c r="M32">
-        <v>1.347189755108731e-07</v>
+        <v>-5.233133681721337e-08</v>
       </c>
       <c r="N32">
         <v>-3.207144204544792e-07</v>
@@ -42860,7 +42860,7 @@
         <v>429</v>
       </c>
       <c r="M33">
-        <v>2.29517199964798e-07</v>
+        <v>-1.203481660066293e-07</v>
       </c>
       <c r="N33">
         <v>-1.659711551607429e-06</v>
@@ -44146,7 +44146,7 @@
         <v>429</v>
       </c>
       <c r="M34">
-        <v>2.156833118461752e-08</v>
+        <v>-2.976284370329917e-09</v>
       </c>
       <c r="N34">
         <v>-3.005814350175819e-09</v>
@@ -45432,7 +45432,7 @@
         <v>429</v>
       </c>
       <c r="M35">
-        <v>2.067640702600622e-08</v>
+        <v>-7.259676563638575e-09</v>
       </c>
       <c r="N35">
         <v>-1.454565836974129e-08</v>
@@ -46718,7 +46718,7 @@
         <v>429</v>
       </c>
       <c r="M36">
-        <v>3.193369843976721e-08</v>
+        <v>-1.404536832628877e-08</v>
       </c>
       <c r="N36">
         <v>-5.261837755181425e-08</v>
@@ -48004,7 +48004,7 @@
         <v>429</v>
       </c>
       <c r="M37">
-        <v>5.004094341138447e-08</v>
+        <v>-2.588190931663373e-08</v>
       </c>
       <c r="N37">
         <v>-1.777670967030062e-07</v>
@@ -49290,7 +49290,7 @@
         <v>429</v>
       </c>
       <c r="M38">
-        <v>7.958610597288122e-08</v>
+        <v>-4.791035790022651e-08</v>
       </c>
       <c r="N38">
         <v>-6.239593456263181e-07</v>
@@ -50576,7 +50576,7 @@
         <v>429</v>
       </c>
       <c r="M39">
-        <v>1.306966167170976e-07</v>
+        <v>-9.227274999774022e-08</v>
       </c>
       <c r="N39">
         <v>-2.507189536347602e-06</v>
@@ -51862,7 +51862,7 @@
         <v>429</v>
       </c>
       <c r="M40">
-        <v>2.570759486949382e-07</v>
+        <v>-1.834184531460279e-07</v>
       </c>
       <c r="N40">
         <v>-1.234497460880842e-05</v>
@@ -53148,7 +53148,7 @@
         <v>429</v>
       </c>
       <c r="M41">
-        <v>1.615011307764596e-08</v>
+        <v>-7.702899864731388e-09</v>
       </c>
       <c r="N41">
         <v>-3.984680553537063e-08</v>
@@ -54434,7 +54434,7 @@
         <v>429</v>
       </c>
       <c r="M42">
-        <v>1.875096032319268e-08</v>
+        <v>-1.264873589455396e-08</v>
       </c>
       <c r="N42">
         <v>-1.162936333629918e-07</v>
@@ -55720,7 +55720,7 @@
         <v>429</v>
       </c>
       <c r="M43">
-        <v>2.984465941314571e-08</v>
+        <v>-2.067828064528293e-08</v>
       </c>
       <c r="N43">
         <v>-3.331475117336138e-07</v>
@@ -57006,7 +57006,7 @@
         <v>429</v>
       </c>
       <c r="M44">
-        <v>4.785365905718539e-08</v>
+        <v>-3.453771701162886e-08</v>
       </c>
       <c r="N44">
         <v>-9.98060399899375e-07</v>
@@ -58292,7 +58292,7 @@
         <v>429</v>
       </c>
       <c r="M45">
-        <v>7.812812825921778e-08</v>
+        <v>-6.112022786747792e-08</v>
       </c>
       <c r="N45">
         <v>-3.393590124829622e-06</v>
@@ -59578,7 +59578,7 @@
         <v>429</v>
       </c>
       <c r="M46">
-        <v>1.333429174179699e-07</v>
+        <v>-1.169919552993846e-07</v>
       </c>
       <c r="N46">
         <v>-1.433333885272372e-05</v>
@@ -60864,7 +60864,7 @@
         <v>429</v>
       </c>
       <c r="M47">
-        <v>1.568330010850413e-08</v>
+        <v>-5.159129986886042e-09</v>
       </c>
       <c r="N47">
         <v>-1.081574349094279e-07</v>
@@ -62150,7 +62150,7 @@
         <v>429</v>
       </c>
       <c r="M48">
-        <v>1.907502055089792e-08</v>
+        <v>-8.554391177765339e-09</v>
       </c>
       <c r="N48">
         <v>-2.979499064351495e-07</v>
@@ -63436,7 +63436,7 @@
         <v>429</v>
       </c>
       <c r="M49">
-        <v>3.111797353272516e-08</v>
+        <v>-1.506983491911952e-08</v>
       </c>
       <c r="N49">
         <v>-8.87027784982359e-07</v>
@@ -64722,7 +64722,7 @@
         <v>429</v>
       </c>
       <c r="M50">
-        <v>5.109028434009941e-08</v>
+        <v>-2.934284463824252e-08</v>
       </c>
       <c r="N50">
         <v>-3.060666111305237e-06</v>
@@ -66008,7 +66008,7 @@
         <v>429</v>
       </c>
       <c r="M51">
-        <v>8.592323222391962e-08</v>
+        <v>-6.40802965797807e-08</v>
       </c>
       <c r="N51">
         <v>-1.310006759261487e-05</v>
@@ -67294,7 +67294,7 @@
         <v>429</v>
       </c>
       <c r="M52">
-        <v>1.631085349641882e-07</v>
+        <v>-1.480559455821595e-07</v>
       </c>
       <c r="N52">
         <v>-7.070043593976862e-05</v>
@@ -68580,7 +68580,7 @@
         <v>429</v>
       </c>
       <c r="M53">
-        <v>2.409144608390237e-08</v>
+        <v>-2.097475414759334e-09</v>
       </c>
       <c r="N53">
         <v>-1.133777764294861e-07</v>
@@ -69866,7 +69866,7 @@
         <v>429</v>
       </c>
       <c r="M54">
-        <v>3.994429899904217e-08</v>
+        <v>-3.989915104418546e-09</v>
       </c>
       <c r="N54">
         <v>-3.343862979314715e-07</v>
@@ -71152,7 +71152,7 @@
         <v>429</v>
       </c>
       <c r="M55">
-        <v>6.614422957189003e-08</v>
+        <v>-1.031665434274007e-08</v>
       </c>
       <c r="N55">
         <v>-1.388807267709717e-06</v>
@@ -72438,7 +72438,7 @@
         <v>429</v>
       </c>
       <c r="M56">
-        <v>1.111856342994005e-07</v>
+        <v>-3.42798673946619e-08</v>
       </c>
       <c r="N56">
         <v>-7.914573524685299e-06</v>
@@ -73724,7 +73724,7 @@
         <v>429</v>
       </c>
       <c r="M57">
-        <v>1.975211224754354e-07</v>
+        <v>-1.179508711781454e-07</v>
       </c>
       <c r="N57">
         <v>-5.269911538559616e-05</v>
@@ -75010,7 +75010,7 @@
         <v>429</v>
       </c>
       <c r="M58">
-        <v>5.426572762797994e-07</v>
+        <v>-3.491312971379171e-07</v>
       </c>
       <c r="N58">
         <v>-0.0003690272908962365</v>
